--- a/survey.xlsx
+++ b/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DB_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C640E9-065B-4018-BBB4-CA747D5B5320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DFEC40-8884-4B9D-939E-948E08DCED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T79" sqref="T79"/>
+      <selection activeCell="G100" sqref="G2:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
